--- a/interpolated_sampled_ADSB/TRP_values/20220704_1.xlsx
+++ b/interpolated_sampled_ADSB/TRP_values/20220704_1.xlsx
@@ -1,46 +1,424 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>TRP</t>
+  </si>
+  <si>
+    <t>TRP_Difference</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
-    </font>
-    <font>
-      <color rgb="00FF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -49,94 +427,343 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -419,389 +1046,390 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>TRP</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>TRP_Difference</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
         <v>18628.1562</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:2">
+      <c r="A3">
         <v>18628.6641</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1">
         <v>0.507900000000518</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:2">
+      <c r="A4">
         <v>18629.0703</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.4061999999976251</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="B4" s="1">
+        <v>0.406199999997625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
         <v>18629.6562</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.5859000000018568</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="B5" s="1">
+        <v>0.585900000001857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
         <v>18630.2422</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.5859999999993306</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="B6" s="1">
+        <v>0.585999999999331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
         <v>18631.2891</v>
       </c>
-      <c r="B7" t="n">
-        <v>1.046900000001187</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="B7" s="1">
+        <v>1.04690000000119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
         <v>18631.8594</v>
       </c>
-      <c r="B8" t="n">
-        <v>0.5702999999994063</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="B8" s="1">
+        <v>0.570299999999406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
         <v>18632.4141</v>
       </c>
-      <c r="B9" t="n">
-        <v>0.5547000000005937</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="B9" s="1">
+        <v>0.554700000000594</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
         <v>18633.9609</v>
       </c>
-      <c r="B10" t="n">
-        <v>1.546799999996438</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="B10" s="1">
+        <v>1.54679999999644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
         <v>18634.9219</v>
       </c>
-      <c r="B11" t="n">
-        <v>0.9610000000029686</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="B11" s="1">
+        <v>0.961000000002969</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
         <v>18636.0312</v>
       </c>
-      <c r="B12" t="n">
-        <v>1.109300000000076</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="B12" s="1">
+        <v>1.10930000000008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
         <v>18636.5703</v>
       </c>
-      <c r="B13" t="n">
-        <v>0.5390999999981432</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="B13" s="1">
+        <v>0.539099999998143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
         <v>18637.0234</v>
       </c>
-      <c r="B14" t="n">
-        <v>0.4530999999988126</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="B14" s="1">
+        <v>0.453099999998813</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
         <v>18640.3516</v>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>3.328200000003562</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="B15" s="3">
+        <v>3.32820000000356</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
         <v>18640.8828</v>
       </c>
-      <c r="B16" t="n">
-        <v>0.5311999999976251</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="B16" s="1">
+        <v>0.531199999997625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
         <v>18641.3594</v>
       </c>
-      <c r="B17" t="n">
-        <v>0.4766000000017812</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="B17" s="1">
+        <v>0.476600000001781</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
         <v>18642.75</v>
       </c>
-      <c r="B18" t="n">
-        <v>1.390599999998813</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="B18" s="1">
+        <v>1.39059999999881</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
         <v>18646.375</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="3">
         <v>3.625</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:2">
+      <c r="A20">
         <v>18647.3594</v>
       </c>
-      <c r="B20" t="n">
-        <v>0.9844000000011874</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="B20" s="1">
+        <v>0.984400000001187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
         <v>18649.9062</v>
       </c>
-      <c r="B21" t="n">
-        <v>2.546800000000076</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="B21" s="1">
+        <v>2.54680000000008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
         <v>18651.0156</v>
       </c>
-      <c r="B22" t="n">
-        <v>1.109399999997549</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="B22" s="1">
+        <v>1.10939999999755</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
         <v>18652.0859</v>
       </c>
-      <c r="B23" t="n">
-        <v>1.070299999999406</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="B23" s="1">
+        <v>1.07029999999941</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
         <v>18653.0156</v>
       </c>
-      <c r="B24" t="n">
-        <v>0.9297000000005937</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="B24" s="1">
+        <v>0.929700000000594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
         <v>18654.9141</v>
       </c>
-      <c r="B25" t="n">
-        <v>1.898500000002969</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="B25" s="1">
+        <v>1.89850000000297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
         <v>18655.4766</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" s="1">
         <v>0.5625</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:2">
+      <c r="A27">
         <v>18657.9609</v>
       </c>
-      <c r="B27" t="n">
-        <v>2.484299999996438</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="B27" s="1">
+        <v>2.48429999999644</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
         <v>18659.4922</v>
       </c>
-      <c r="B28" t="n">
-        <v>1.531300000002375</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="B28" s="1">
+        <v>1.53130000000238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
         <v>18663.4219</v>
       </c>
-      <c r="B29" s="2" t="n">
-        <v>3.929700000000594</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="B29" s="3">
+        <v>3.92970000000059</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
         <v>18663.875</v>
       </c>
-      <c r="B30" t="n">
-        <v>0.4530999999988126</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="B30" s="1">
+        <v>0.453099999998813</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
         <v>18669.2344</v>
       </c>
-      <c r="B31" s="2" t="n">
-        <v>5.359400000001187</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="B31" s="3">
+        <v>5.35940000000119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
         <v>18672.8828</v>
       </c>
-      <c r="B32" s="2" t="n">
-        <v>3.648399999998219</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="B32" s="3">
+        <v>3.64839999999822</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
         <v>18686.9609</v>
       </c>
-      <c r="B33" s="2" t="n">
-        <v>14.07809999999881</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="B33" s="3">
+        <v>14.0780999999988</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
         <v>18688.4922</v>
       </c>
-      <c r="B34" t="n">
-        <v>1.531300000002375</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="B34" s="1">
+        <v>1.53130000000238</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
         <v>18689.9609</v>
       </c>
-      <c r="B35" t="n">
-        <v>1.468699999997625</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="B35" s="1">
+        <v>1.46869999999762</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
         <v>18693.6406</v>
       </c>
-      <c r="B36" s="2" t="n">
-        <v>3.679700000000594</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="B36" s="3">
+        <v>3.67970000000059</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
         <v>18694.0938</v>
       </c>
-      <c r="B37" t="n">
-        <v>0.4531999999999243</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="B37" s="1">
+        <v>0.453199999999924</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
         <v>18694.6562</v>
       </c>
-      <c r="B38" t="n">
-        <v>0.5624000000025262</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="B38" s="1">
+        <v>0.562400000002526</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
         <v>18701.7734</v>
       </c>
-      <c r="B39" s="2" t="n">
-        <v>7.117199999996956</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="B39" s="3">
+        <v>7.11719999999696</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
         <v>18706.25</v>
       </c>
-      <c r="B40" s="2" t="n">
-        <v>4.476600000001781</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="B40" s="3">
+        <v>4.47660000000178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
         <v>18707.5625</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" s="1">
         <v>1.3125</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:2">
+      <c r="A42">
         <v>18714.0625</v>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B42" s="3">
         <v>6.5</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:2">
+      <c r="A43">
         <v>18715.8984</v>
       </c>
-      <c r="B43" t="n">
-        <v>1.835899999998219</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="B43" s="1">
+        <v>1.83589999999822</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
         <v>18719.8203</v>
       </c>
-      <c r="B44" s="2" t="n">
-        <v>3.921900000001187</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="B44" s="3">
+        <v>3.92190000000119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
         <v>18722.1953</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" s="1">
         <v>2.375</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B$1:B$1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>